--- a/medicine/Enfance/Maurice_Vauthier_(écrivain)/Maurice_Vauthier_(écrivain).xlsx
+++ b/medicine/Enfance/Maurice_Vauthier_(écrivain)/Maurice_Vauthier_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Vauthier_(%C3%A9crivain)</t>
+          <t>Maurice_Vauthier_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Marie Louis Vauthier, né à Shanghai le 9 septembre 1921 et mort à Rambouillet le 31 août 2007, est un écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_Vauthier_(%C3%A9crivain)</t>
+          <t>Maurice_Vauthier_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Vauthier, docteur en droit, publie essentiellement des romans de jeunesse en particulier pour la collection Signe de piste. Trois de ses ouvrages furent couronnés par l'Académie française[1].
-Né en Chine où son père enseignait les sciences à l'institut français "L'Aurore", son enfance se déroule en Saintonge[2]. Il fait ses études au collège Notre-Dame de Recouvrance. Louveteau, il est membre de la 1re Saintes - Saint Eutrope et restera fidèle à ses années de scoutisme. Durant ses études de droit, il devient dirigeant puis fédéral du mouvement Cœurs Vaillants. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Vauthier, docteur en droit, publie essentiellement des romans de jeunesse en particulier pour la collection Signe de piste. Trois de ses ouvrages furent couronnés par l'Académie française.
+Né en Chine où son père enseignait les sciences à l'institut français "L'Aurore", son enfance se déroule en Saintonge. Il fait ses études au collège Notre-Dame de Recouvrance. Louveteau, il est membre de la 1re Saintes - Saint Eutrope et restera fidèle à ses années de scoutisme. Durant ses études de droit, il devient dirigeant puis fédéral du mouvement Cœurs Vaillants. 
 Pendant la Seconde Guerre Mondiale, il est requis comme bucheron dans le cadre du S.T.O et prend des produits dopants pour tenir ce qui altère définitivement sa santé.
-Son premier ouvrage, Faon l’héroïque[3], fit l'objet d'un film amateur en super 8 mm d'une durée de 90 minutes.
+Son premier ouvrage, Faon l’héroïque, fit l'objet d'un film amateur en super 8 mm d'une durée de 90 minutes.
 Membre de l'association des Amis du Signe de Piste depuis sa création, Maurice Vauthier est resté l'un de ses plus mystérieux auteurs en raison d'une santé vacillante l'empêchant de participer aux séances de dédicaces et autres évènements.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maurice_Vauthier_(%C3%A9crivain)</t>
+          <t>Maurice_Vauthier_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans les collections Signe de piste[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans les collections Signe de piste
 Cycle des enfants meurtris = Cycle des jeunes vainqueurs
 Faon l'héroïque, 1962, grand prix du Salon de l'Enfance, prix Sobrier-Arnould de l'Académie française 1963
 La Vengeance de Gildas, 1971
@@ -572,7 +588,7 @@
 Santos, 1993 réédité sous le titre L'homme de Citadelle
 Les Jean de l'Aumaille, 1993
 Vespasien, 1995
-Je t'appelle Zabur, Editions du Cerf, 1996 - version romancée de l'essai de Maurice Bellet "Le Dieu pervers"[5].
+Je t'appelle Zabur, Editions du Cerf, 1996 - version romancée de l'essai de Maurice Bellet "Le Dieu pervers".
 Bombes en bémol, 1998
 Rééditions à l'étranger
 La Planète Kalgar : éditions brésilienne, polonaise et italienne
